--- a/facsko_etkezesi_naplo-20250829.xlsx
+++ b/facsko_etkezesi_naplo-20250829.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -578,6 +578,9 @@
     <t xml:space="preserve">Gyümölcsleves, rizs, sajtgombóc, tartármártás, kávé tejszínnel</t>
   </si>
   <si>
+    <t xml:space="preserve">Bableves, három lekváros fánk, kávé</t>
+  </si>
+  <si>
     <t xml:space="preserve">kávé tejszínnel, kóla zéró</t>
   </si>
   <si>
@@ -587,12 +590,18 @@
     <t xml:space="preserve">Zero Fanta, édes-svanyú leves, szezámmagos gombóc, burgonya, cukkinis csirke</t>
   </si>
   <si>
+    <t xml:space="preserve">Két szendvics, kóla zéró, dupla kávé tejszínnel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vegyes magvak</t>
   </si>
   <si>
     <t xml:space="preserve">4 db kis nugát szelet, cukormentes energiaital</t>
   </si>
   <si>
+    <t xml:space="preserve">Két pizza szelet, 1 l grapefruit lé, 100%</t>
+  </si>
+  <si>
     <t xml:space="preserve">BBQ-s csirke burgur, sült cukkini joghurttal</t>
   </si>
   <si>
@@ -602,6 +611,9 @@
     <t xml:space="preserve">1 db fahéjas csiga, 1 db dupla csokis péksüti</t>
   </si>
   <si>
+    <t xml:space="preserve">1 db túrós-csokis péksüti, mogyoró</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sajt lapkák, mogyoró, zala felvágott</t>
   </si>
   <si>
@@ -609,6 +621,9 @@
   </si>
   <si>
     <t xml:space="preserve">100 g sörszelet, 6 szelet pirítós, sajt, kalóriacsökkentett vaj, soks-sok paradicsom, pár szem fahéjas müzli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 g csokoládé</t>
   </si>
 </sst>
 </file>
@@ -4773,8 +4788,8 @@
   </sheetPr>
   <dimension ref="A1:BV63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4911,7 +4926,9 @@
       <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="15"/>
@@ -4971,7 +4988,9 @@
       <c r="F5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -4999,7 +5018,9 @@
       <c r="F6" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -5111,15 +5132,17 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="16"/>
+        <v>187</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -5196,7 +5219,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>11</v>
@@ -5205,9 +5228,11 @@
         <v>11</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="16"/>
+        <v>190</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -5227,15 +5252,17 @@
         <v>11</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="38"/>
+        <v>194</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -5255,15 +5282,17 @@
         <v>11</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>198</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>199</v>
+      </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>

--- a/facsko_etkezesi_naplo-20250829.xlsx
+++ b/facsko_etkezesi_naplo-20250829.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -563,9 +563,15 @@
     <t xml:space="preserve">6 db őszibarack, kávé tejszínnel, cukormentes szörp</t>
   </si>
   <si>
+    <t xml:space="preserve">Kávé tejszínnel, két péksütemény</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 dupla expressó, 1 dobozos kóla zéró, 2 db vegén szendvics</t>
   </si>
   <si>
+    <t xml:space="preserve">Mogyoró</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spenót tükörtojással, marhapörkölt petrezselymes burgonyával</t>
   </si>
   <si>
@@ -581,6 +587,9 @@
     <t xml:space="preserve">Bableves, három lekváros fánk, kávé</t>
   </si>
   <si>
+    <t xml:space="preserve">Zöldbab főzelék, egy marhahús pogácsa, három sült kolbász</t>
+  </si>
+  <si>
     <t xml:space="preserve">kávé tejszínnel, kóla zéró</t>
   </si>
   <si>
@@ -591,6 +600,9 @@
   </si>
   <si>
     <t xml:space="preserve">Két szendvics, kóla zéró, dupla kávé tejszínnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marhahús pogácsa magában, két kávé</t>
   </si>
   <si>
     <t xml:space="preserve">Vegyes magvak</t>
@@ -4788,8 +4800,8 @@
   </sheetPr>
   <dimension ref="A1:BV63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4929,7 +4941,9 @@
       <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="I2" s="16"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4977,7 +4991,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>140</v>
@@ -4991,7 +5005,9 @@
       <c r="G5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="34" t="s">
+        <v>181</v>
+      </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -5007,21 +5023,23 @@
         <v>14</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -5132,18 +5150,20 @@
         <v>11</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="16"/>
+        <v>191</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>192</v>
+      </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -5219,7 +5239,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>11</v>
@@ -5228,12 +5248,14 @@
         <v>11</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="16"/>
+        <v>195</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -5252,16 +5274,16 @@
         <v>11</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -5282,16 +5304,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>

--- a/facsko_etkezesi_naplo-20250829.xlsx
+++ b/facsko_etkezesi_naplo-20250829.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="206">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -626,6 +626,9 @@
     <t xml:space="preserve">1 db túrós-csokis péksüti, mogyoró</t>
   </si>
   <si>
+    <t xml:space="preserve">Ázsiai wrap</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sajt lapkák, mogyoró, zala felvágott</t>
   </si>
   <si>
@@ -636,6 +639,9 @@
   </si>
   <si>
     <t xml:space="preserve">200 g csokoládé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 péksüti, pár szem müzli</t>
   </si>
 </sst>
 </file>
@@ -4800,8 +4806,8 @@
   </sheetPr>
   <dimension ref="A1:BV63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5285,7 +5291,9 @@
       <c r="G11" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -5304,18 +5312,20 @@
         <v>11</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="27"/>
+        <v>204</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
